--- a/data/configurations_documentation.xlsx
+++ b/data/configurations_documentation.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="94">
   <si>
     <t>Configuration</t>
   </si>
@@ -306,6 +306,15 @@
   </si>
   <si>
     <t>The PV tilt angle is defined zero in horizontal position and 90 in vertical position. It influences the electricity yield.</t>
+  </si>
+  <si>
+    <t>mechanical ventilation</t>
+  </si>
+  <si>
+    <t>True/False</t>
+  </si>
+  <si>
+    <t>Here it is defined if there is a mechanical ventilation or not. This influences mainly the embodied emissions but also the electricity demand. It is not directly linked to ventilation volume flows.</t>
   </si>
 </sst>
 </file>
@@ -639,10 +648,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AJ121"/>
+  <dimension ref="A1:AK121"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AB1" workbookViewId="0">
-      <selection activeCell="AK3" sqref="AK3"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -651,30 +660,30 @@
     <col min="2" max="2" width="26.453125" customWidth="1"/>
     <col min="3" max="3" width="30.81640625" customWidth="1"/>
     <col min="4" max="4" width="23.453125" customWidth="1"/>
-    <col min="5" max="6" width="22.453125" customWidth="1"/>
-    <col min="7" max="7" width="17.7265625" customWidth="1"/>
-    <col min="8" max="8" width="34" customWidth="1"/>
-    <col min="9" max="9" width="14.1796875" customWidth="1"/>
-    <col min="10" max="10" width="20.7265625" customWidth="1"/>
-    <col min="11" max="11" width="14.1796875" customWidth="1"/>
-    <col min="12" max="12" width="14.453125" customWidth="1"/>
-    <col min="13" max="13" width="16.453125" customWidth="1"/>
-    <col min="14" max="14" width="64.1796875" customWidth="1"/>
-    <col min="15" max="15" width="16.26953125" customWidth="1"/>
-    <col min="16" max="22" width="21" customWidth="1"/>
-    <col min="23" max="23" width="21.81640625" customWidth="1"/>
-    <col min="24" max="28" width="42.81640625" customWidth="1"/>
-    <col min="29" max="29" width="14.26953125" customWidth="1"/>
-    <col min="30" max="30" width="22.6328125" customWidth="1"/>
-    <col min="31" max="31" width="19.08984375" customWidth="1"/>
-    <col min="32" max="32" width="14.54296875" customWidth="1"/>
-    <col min="33" max="33" width="13" customWidth="1"/>
-    <col min="34" max="34" width="20.1796875" customWidth="1"/>
-    <col min="35" max="35" width="18.81640625" customWidth="1"/>
-    <col min="36" max="36" width="16.7265625" customWidth="1"/>
+    <col min="5" max="7" width="22.453125" customWidth="1"/>
+    <col min="8" max="8" width="17.7265625" customWidth="1"/>
+    <col min="9" max="9" width="34" customWidth="1"/>
+    <col min="10" max="10" width="14.1796875" customWidth="1"/>
+    <col min="11" max="11" width="20.7265625" customWidth="1"/>
+    <col min="12" max="12" width="14.1796875" customWidth="1"/>
+    <col min="13" max="13" width="14.453125" customWidth="1"/>
+    <col min="14" max="14" width="16.453125" customWidth="1"/>
+    <col min="15" max="15" width="64.1796875" customWidth="1"/>
+    <col min="16" max="16" width="16.26953125" customWidth="1"/>
+    <col min="17" max="23" width="21" customWidth="1"/>
+    <col min="24" max="24" width="21.81640625" customWidth="1"/>
+    <col min="25" max="29" width="42.81640625" customWidth="1"/>
+    <col min="30" max="30" width="14.26953125" customWidth="1"/>
+    <col min="31" max="31" width="22.6328125" customWidth="1"/>
+    <col min="32" max="32" width="19.08984375" customWidth="1"/>
+    <col min="33" max="33" width="14.54296875" customWidth="1"/>
+    <col min="34" max="34" width="13" customWidth="1"/>
+    <col min="35" max="35" width="20.1796875" customWidth="1"/>
+    <col min="36" max="36" width="18.81640625" customWidth="1"/>
+    <col min="37" max="37" width="16.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -694,97 +703,100 @@
         <v>48</v>
       </c>
       <c r="G1" t="s">
+        <v>91</v>
+      </c>
+      <c r="H1" t="s">
         <v>10</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>38</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>12</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>47</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>39</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>13</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>14</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>40</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>16</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>17</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>30</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>26</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>28</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>32</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>33</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>53</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>34</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>18</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>51</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>41</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>42</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>50</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>35</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AE1" t="s">
         <v>49</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AF1" t="s">
         <v>37</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AG1" t="s">
         <v>45</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AH1" t="s">
         <v>21</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AI1" t="s">
         <v>36</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AJ1" t="s">
         <v>22</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AK1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:37" x14ac:dyDescent="0.35">
       <c r="B2" t="s">
         <v>3</v>
       </c>
@@ -801,85 +813,88 @@
         <v>7</v>
       </c>
       <c r="G2" t="s">
+        <v>92</v>
+      </c>
+      <c r="H2" t="s">
         <v>11</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>5</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>5</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>15</v>
-      </c>
-      <c r="O2" t="s">
-        <v>5</v>
       </c>
       <c r="P2" t="s">
         <v>5</v>
       </c>
       <c r="Q2" t="s">
+        <v>5</v>
+      </c>
+      <c r="R2" t="s">
         <v>31</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>27</v>
       </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
         <v>29</v>
-      </c>
-      <c r="T2" t="s">
-        <v>3</v>
       </c>
       <c r="U2" t="s">
         <v>3</v>
       </c>
       <c r="V2" t="s">
+        <v>3</v>
+      </c>
+      <c r="W2" t="s">
         <v>54</v>
       </c>
-      <c r="W2" t="s">
+      <c r="X2" t="s">
         <v>1</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Y2" t="s">
         <v>19</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="Z2" t="s">
         <v>52</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AA2" t="s">
         <v>43</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AB2" t="s">
         <v>44</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AC2" t="s">
         <v>15</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="AD2" t="s">
         <v>20</v>
       </c>
-      <c r="AD2" t="s">
+      <c r="AE2" t="s">
         <v>43</v>
       </c>
-      <c r="AE2" t="s">
+      <c r="AF2" t="s">
         <v>3</v>
       </c>
-      <c r="AF2" t="s">
+      <c r="AG2" t="s">
         <v>46</v>
-      </c>
-      <c r="AG2" t="s">
-        <v>15</v>
       </c>
       <c r="AH2" t="s">
         <v>15</v>
       </c>
       <c r="AI2" t="s">
+        <v>15</v>
+      </c>
+      <c r="AJ2" t="s">
         <v>23</v>
       </c>
-      <c r="AJ2" t="s">
+      <c r="AK2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:36" s="1" customFormat="1" ht="261" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:37" s="1" customFormat="1" ht="261" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>55</v>
       </c>
@@ -899,121 +914,124 @@
         <v>59</v>
       </c>
       <c r="G3" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="H3" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="I3" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="I3" s="5" t="s">
+      <c r="J3" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="K3" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="K3" s="3" t="s">
+      <c r="L3" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="L3" s="4" t="s">
+      <c r="M3" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="M3" s="4" t="s">
+      <c r="N3" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="N3" s="3" t="s">
+      <c r="O3" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="O3" s="5" t="s">
+      <c r="P3" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="P3" s="5" t="s">
+      <c r="Q3" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="Q3" s="3" t="s">
+      <c r="R3" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="R3" s="3" t="s">
+      <c r="S3" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="S3" s="3" t="s">
+      <c r="T3" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="T3" s="3" t="s">
+      <c r="U3" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="U3" s="3" t="s">
+      <c r="V3" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="V3" s="3" t="s">
+      <c r="W3" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="W3" s="3" t="s">
+      <c r="X3" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="X3" s="3" t="s">
+      <c r="Y3" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="Y3" s="3" t="s">
+      <c r="Z3" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="Z3" s="3" t="s">
+      <c r="AA3" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="AA3" s="3" t="s">
+      <c r="AB3" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="AB3" s="3" t="s">
+      <c r="AC3" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="AC3" s="3" t="s">
+      <c r="AD3" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="AD3" s="3" t="s">
+      <c r="AE3" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="AE3" s="3" t="s">
+      <c r="AF3" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="AF3" s="3" t="s">
+      <c r="AG3" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="AG3" s="3" t="s">
+      <c r="AH3" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="AH3" s="3" t="s">
+      <c r="AI3" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="AI3" s="3" t="s">
+      <c r="AJ3" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="AJ3" s="3" t="s">
+      <c r="AK3" s="3" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="4" spans="1:36" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="D4" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="H4" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:36" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="AC5" s="3"/>
+    <row r="5" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="AD5" s="3"/>
     </row>
-    <row r="6" spans="1:36" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="7" spans="1:36" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="8" spans="1:36" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="9" spans="1:36" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="10" spans="1:36" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="11" spans="1:36" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="12" spans="1:36" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="13" spans="1:36" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="14" spans="1:36" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="15" spans="1:36" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="16" spans="1:36" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="6" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="7" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="8" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="9" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="10" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="11" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="12" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="13" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="14" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="15" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="16" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="17" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="18" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="19" s="1" customFormat="1" x14ac:dyDescent="0.35"/>

--- a/data/configurations_documentation.xlsx
+++ b/data/configurations_documentation.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\walkerl\Documents\code\sia_380-1-full_version\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LW_Simulation\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="470" windowWidth="25610" windowHeight="15950"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="25605" windowHeight="15945"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="108">
   <si>
     <t>Configuration</t>
   </si>
@@ -206,18 +206,9 @@
     <t>This is the energy reference area of the building. This area is used to normalize the result against. Also, some inputs are given relative to this value. If it is unknow, total floor area could be used instead.</t>
   </si>
   <si>
-    <t>The infiltration volume flow heavily influences infiltration losses.  Pay attention to the dimensions. If air change rate is given, this can be converted with the room height. Here, often standard values make sense.</t>
-  </si>
-  <si>
-    <t>The ventilation volume flow influences the outcome similarly as the infiltration volume flow. However, it is on purpose due to natural or mechanical ventilation. The value given here is assumed constant except for  window openings in case of overheating.</t>
-  </si>
-  <si>
     <t>The increased ventilation volume flow is a simple parameter to describe window opening or increased mechanical ventilation in case of overheating. This rate is activated as soon as the internal temperature is above the cooling setpoint and the outside temperature is below indoor temperature.</t>
   </si>
   <si>
-    <t>This is the area that each person occupies. It influences the calculation of internal gains.</t>
-  </si>
-  <si>
     <t>The wall type name as given here, so far only directly influences the calculation of the wall's embodied emissions. U-Values have to be defined seperately.</t>
   </si>
   <si>
@@ -227,9 +218,6 @@
     <t>The ceiling type name only influcneces the calculation of the embodied emissions. This is assumed to be the build up of the slab on every story. In the calculation the square meter amount of this ceiling is equal to the energy reference area for simplicity. The choice of ceiling type name does not directly influence thermal mass. This goes into the thermal mass per erf variable.</t>
   </si>
   <si>
-    <t>This describes the internal thermal mass that can be activated for heating and cooling demand calculations. This input is normalized by energy reference area. Standard values can be found in SIA380-1. Otherwise, values can be calculated from knowing the wall, roof and internal ceiling build up. A good tool to do so is UBAKUS</t>
-  </si>
-  <si>
     <t>The window type name is only used to calculate embodied emissions by the window.</t>
   </si>
   <si>
@@ -315,6 +303,60 @@
   </si>
   <si>
     <t>Here it is defined if there is a mechanical ventilation or not. This influences mainly the embodied emissions but also the electricity demand. It is not directly linked to ventilation volume flows.</t>
+  </si>
+  <si>
+    <t>required</t>
+  </si>
+  <si>
+    <t>required. 0 can be used for nonexisting wall-orientation</t>
+  </si>
+  <si>
+    <t>required. 0 can be used for nonexisting window-orientation</t>
+  </si>
+  <si>
+    <t>range between 0 (no thermal bridge add on) and 100 (100% thermal bridge add on (not realistic))</t>
+  </si>
+  <si>
+    <t>or None</t>
+  </si>
+  <si>
+    <t>or 0</t>
+  </si>
+  <si>
+    <t>Realistic values between 0.14 - 0.20</t>
+  </si>
+  <si>
+    <t>typical value: 0.8</t>
+  </si>
+  <si>
+    <t>Typical for flat roofs: (0), 10, 30. For sloped roofs anything up to 45</t>
+  </si>
+  <si>
+    <t>so far, only m-Si</t>
+  </si>
+  <si>
+    <t>Realistic values between 0.4 - 0.6</t>
+  </si>
+  <si>
+    <t>in case of not used: same number as in "ventilation volume flow"</t>
+  </si>
+  <si>
+    <t>required. Construction types: Heavy: 0.15, Midweight: 0.08, Light: 0.03</t>
+  </si>
+  <si>
+    <t>This describes the internal thermal mass that can be activated for heating and cooling demand calculations. This input is normalized by energy reference area. Standard values can be found in SIA380-1 (Tab. 25). Otherwise, values can be calculated from knowing the wall, roof and internal ceiling build up. A good tool to do so is UBAKUS</t>
+  </si>
+  <si>
+    <t>required. SIA gives 0.15 as a standard value (= q_inf)</t>
+  </si>
+  <si>
+    <t>The infiltration volume flow heavily influences infiltration losses.  Pay attention to the dimensions. If air change rate is given, this can be converted with the room height. Here, often standard values make sense. SIA 380/1, 3.5.5</t>
+  </si>
+  <si>
+    <t>This is the area that each person occupies. It influences the calculation of internal gains. SIA 380/1, Tab. 10</t>
+  </si>
+  <si>
+    <t>The ventilation volume flow influences the outcome similarly as the infiltration volume flow. However, it is on purpose due to natural or mechanical ventilation. The value given here is assumed constant except for  window openings in case of overheating. SIA 380/1, Tab. 14</t>
   </si>
 </sst>
 </file>
@@ -650,40 +692,40 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AK121"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView tabSelected="1" topLeftCell="AC1" workbookViewId="0">
+      <selection activeCell="AG5" sqref="AG5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.453125" customWidth="1"/>
-    <col min="2" max="2" width="26.453125" customWidth="1"/>
-    <col min="3" max="3" width="30.81640625" customWidth="1"/>
-    <col min="4" max="4" width="23.453125" customWidth="1"/>
-    <col min="5" max="7" width="22.453125" customWidth="1"/>
-    <col min="8" max="8" width="17.7265625" customWidth="1"/>
+    <col min="1" max="1" width="23.42578125" customWidth="1"/>
+    <col min="2" max="2" width="26.42578125" customWidth="1"/>
+    <col min="3" max="3" width="30.85546875" customWidth="1"/>
+    <col min="4" max="4" width="23.42578125" customWidth="1"/>
+    <col min="5" max="7" width="22.42578125" customWidth="1"/>
+    <col min="8" max="8" width="17.7109375" customWidth="1"/>
     <col min="9" max="9" width="34" customWidth="1"/>
-    <col min="10" max="10" width="14.1796875" customWidth="1"/>
-    <col min="11" max="11" width="20.7265625" customWidth="1"/>
-    <col min="12" max="12" width="14.1796875" customWidth="1"/>
-    <col min="13" max="13" width="14.453125" customWidth="1"/>
-    <col min="14" max="14" width="16.453125" customWidth="1"/>
-    <col min="15" max="15" width="64.1796875" customWidth="1"/>
-    <col min="16" max="16" width="16.26953125" customWidth="1"/>
+    <col min="10" max="10" width="14.140625" customWidth="1"/>
+    <col min="11" max="11" width="20.7109375" customWidth="1"/>
+    <col min="12" max="12" width="14.140625" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" customWidth="1"/>
+    <col min="14" max="14" width="16.42578125" customWidth="1"/>
+    <col min="15" max="15" width="64.140625" customWidth="1"/>
+    <col min="16" max="16" width="16.28515625" customWidth="1"/>
     <col min="17" max="23" width="21" customWidth="1"/>
-    <col min="24" max="24" width="21.81640625" customWidth="1"/>
-    <col min="25" max="29" width="42.81640625" customWidth="1"/>
-    <col min="30" max="30" width="14.26953125" customWidth="1"/>
-    <col min="31" max="31" width="22.6328125" customWidth="1"/>
-    <col min="32" max="32" width="19.08984375" customWidth="1"/>
-    <col min="33" max="33" width="14.54296875" customWidth="1"/>
+    <col min="24" max="24" width="21.85546875" customWidth="1"/>
+    <col min="25" max="29" width="42.85546875" customWidth="1"/>
+    <col min="30" max="30" width="14.28515625" customWidth="1"/>
+    <col min="31" max="31" width="22.5703125" customWidth="1"/>
+    <col min="32" max="32" width="19.140625" customWidth="1"/>
+    <col min="33" max="33" width="14.5703125" customWidth="1"/>
     <col min="34" max="34" width="13" customWidth="1"/>
-    <col min="35" max="35" width="20.1796875" customWidth="1"/>
-    <col min="36" max="36" width="18.81640625" customWidth="1"/>
-    <col min="37" max="37" width="16.7265625" customWidth="1"/>
+    <col min="35" max="35" width="20.140625" customWidth="1"/>
+    <col min="36" max="36" width="18.85546875" customWidth="1"/>
+    <col min="37" max="37" width="16.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -703,7 +745,7 @@
         <v>48</v>
       </c>
       <c r="G1" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="H1" t="s">
         <v>10</v>
@@ -796,7 +838,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:37" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>3</v>
       </c>
@@ -813,7 +855,7 @@
         <v>7</v>
       </c>
       <c r="G2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="H2" t="s">
         <v>11</v>
@@ -894,7 +936,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:37" s="1" customFormat="1" ht="261" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:37" s="1" customFormat="1" ht="285" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>55</v>
       </c>
@@ -902,112 +944,112 @@
         <v>56</v>
       </c>
       <c r="C3" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="M3" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="N3" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="O3" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="J3" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="L3" s="3" t="s">
+      <c r="P3" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="M3" s="4" t="s">
+      <c r="Q3" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="N3" s="4" t="s">
+      <c r="R3" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="S3" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="T3" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="O3" s="3" t="s">
+      <c r="U3" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="P3" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="Q3" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="R3" s="3" t="s">
+      <c r="V3" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="W3" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="X3" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y3" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="Z3" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="S3" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="T3" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="U3" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="V3" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="W3" s="3" t="s">
+      <c r="AA3" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="X3" s="3" t="s">
+      <c r="AB3" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="Y3" s="3" t="s">
+      <c r="AC3" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="AD3" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="Z3" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="AA3" s="3" t="s">
+      <c r="AE3" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="AB3" s="3" t="s">
+      <c r="AF3" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="AC3" s="3" t="s">
+      <c r="AG3" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="AD3" s="3" t="s">
+      <c r="AH3" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="AE3" s="3" t="s">
+      <c r="AI3" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="AF3" s="3" t="s">
+      <c r="AJ3" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="AG3" s="3" t="s">
+      <c r="AK3" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="AH3" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="AI3" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="AJ3" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="AK3" s="3" t="s">
-        <v>90</v>
-      </c>
     </row>
-    <row r="4" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D4" s="1" t="s">
         <v>9</v>
       </c>
@@ -1018,125 +1060,229 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="AD5" s="3"/>
+    <row r="5" spans="1:37" s="1" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="B5" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="P5" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q5" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="R5" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="S5" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="T5" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="U5" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="V5" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="W5" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="X5" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="Y5" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="Z5" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="AA5" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="AB5" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="AC5" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="AD5" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="AE5" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="AF5" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AG5" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="AH5" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="AI5" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AK5" s="2" t="s">
+        <v>98</v>
+      </c>
     </row>
-    <row r="6" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="7" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="8" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="9" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="10" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="11" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="12" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="13" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="14" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="15" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="16" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="17" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="18" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="19" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="20" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="21" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="22" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="23" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="24" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="25" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="26" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="27" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="28" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="29" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="30" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="31" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="32" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="33" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="34" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="35" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="36" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="37" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="38" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="39" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="40" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="41" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="42" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="43" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="44" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="45" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="46" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="47" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="48" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="49" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="50" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="51" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="52" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="53" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="54" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="55" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="56" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="57" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="58" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="59" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="60" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="61" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="62" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="63" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="64" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="65" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="66" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="67" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="68" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="69" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="70" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="71" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="72" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="73" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="74" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="75" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="76" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="77" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="78" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="79" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="80" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="81" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="82" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="83" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="84" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="85" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="86" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="87" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="88" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="89" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="90" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="91" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="92" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="93" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="94" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="95" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="96" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="97" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="98" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="99" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="100" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="101" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="102" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="103" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="104" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="105" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="106" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="107" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="108" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="109" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="110" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="111" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="112" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="113" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="114" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="115" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="116" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="117" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="118" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="119" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="120" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="121" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="6" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="17" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="18" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="19" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="20" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="21" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="22" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="23" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="24" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="25" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="26" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="27" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="28" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="29" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="30" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="31" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="32" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="33" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="34" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="35" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="36" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="37" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="38" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="39" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="40" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="41" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="42" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="43" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="44" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="45" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="46" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="47" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="48" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="49" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="50" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="51" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="52" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="53" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="54" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="55" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="56" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="57" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="58" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="59" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="60" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="61" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="62" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="63" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="64" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="65" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="66" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="67" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="68" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="69" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="70" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="71" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="72" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="73" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="74" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="75" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="76" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="77" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="78" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="79" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="80" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="81" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="82" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="83" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="84" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="85" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="86" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="87" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="88" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="89" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="90" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="91" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="92" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="93" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="94" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="95" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="96" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="97" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="98" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="99" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="100" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="101" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="102" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="103" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="104" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="105" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="106" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="107" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="108" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="109" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="110" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="111" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="112" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="113" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="114" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="115" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="116" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="117" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="118" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="119" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="120" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="121" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/configurations_documentation.xlsx
+++ b/data/configurations_documentation.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LW_Simulation\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LW_Simulation\PycharmProjects\sia_380-1-full_version\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="104">
   <si>
     <t>Configuration</t>
   </si>
@@ -194,12 +194,6 @@
     <t>"same" or the choices from heating system</t>
   </si>
   <si>
-    <t>thermal bridge add on</t>
-  </si>
-  <si>
-    <t>%</t>
-  </si>
-  <si>
     <t>Configuration number starting with 0. 0 is also the design configuration for heating sizing.</t>
   </si>
   <si>
@@ -251,9 +245,6 @@
     <t>The floor area is usually the footprint of the building. It influences transmission losses to the ground. At the moment these embodied emissions are neglected/calculated to be the same as the internal floors.</t>
   </si>
   <si>
-    <t xml:space="preserve">Since thermal bridges are not modeled directly, a general factor is assumed. This factor is multiplied to the transmission losses (u-values) of all areas. </t>
-  </si>
-  <si>
     <t>This is the height above sea level. Slightly influences monthly transmission and ventilation losses. (Could be taken out)</t>
   </si>
   <si>
@@ -312,9 +303,6 @@
   </si>
   <si>
     <t>required. 0 can be used for nonexisting window-orientation</t>
-  </si>
-  <si>
-    <t>range between 0 (no thermal bridge add on) and 100 (100% thermal bridge add on (not realistic))</t>
   </si>
   <si>
     <t>or None</t>
@@ -690,10 +678,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AK121"/>
+  <dimension ref="A1:AJ121"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="AC1" workbookViewId="0">
-      <selection activeCell="AG5" sqref="AG5"/>
+      <selection activeCell="X7" sqref="X7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -710,22 +698,22 @@
     <col min="12" max="12" width="14.140625" customWidth="1"/>
     <col min="13" max="13" width="14.42578125" customWidth="1"/>
     <col min="14" max="14" width="16.42578125" customWidth="1"/>
-    <col min="15" max="15" width="64.140625" customWidth="1"/>
+    <col min="15" max="15" width="20" customWidth="1"/>
     <col min="16" max="16" width="16.28515625" customWidth="1"/>
-    <col min="17" max="23" width="21" customWidth="1"/>
-    <col min="24" max="24" width="21.85546875" customWidth="1"/>
-    <col min="25" max="29" width="42.85546875" customWidth="1"/>
-    <col min="30" max="30" width="14.28515625" customWidth="1"/>
-    <col min="31" max="31" width="22.5703125" customWidth="1"/>
-    <col min="32" max="32" width="19.140625" customWidth="1"/>
-    <col min="33" max="33" width="14.5703125" customWidth="1"/>
-    <col min="34" max="34" width="13" customWidth="1"/>
-    <col min="35" max="35" width="20.140625" customWidth="1"/>
-    <col min="36" max="36" width="18.85546875" customWidth="1"/>
-    <col min="37" max="37" width="16.7109375" customWidth="1"/>
+    <col min="17" max="22" width="21" customWidth="1"/>
+    <col min="23" max="23" width="21.85546875" customWidth="1"/>
+    <col min="24" max="28" width="42.85546875" customWidth="1"/>
+    <col min="29" max="29" width="14.28515625" customWidth="1"/>
+    <col min="30" max="30" width="22.5703125" customWidth="1"/>
+    <col min="31" max="31" width="19.140625" customWidth="1"/>
+    <col min="32" max="32" width="14.5703125" customWidth="1"/>
+    <col min="33" max="33" width="13" customWidth="1"/>
+    <col min="34" max="34" width="20.140625" customWidth="1"/>
+    <col min="35" max="35" width="18.85546875" customWidth="1"/>
+    <col min="36" max="36" width="16.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -745,7 +733,7 @@
         <v>48</v>
       </c>
       <c r="G1" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="H1" t="s">
         <v>10</v>
@@ -793,52 +781,49 @@
         <v>33</v>
       </c>
       <c r="W1" t="s">
-        <v>53</v>
+        <v>34</v>
       </c>
       <c r="X1" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="Y1" t="s">
-        <v>18</v>
+        <v>51</v>
       </c>
       <c r="Z1" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AA1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AB1" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AC1" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="AD1" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="AE1" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="AF1" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="AG1" t="s">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="AH1" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="AI1" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="AJ1" t="s">
-        <v>22</v>
-      </c>
-      <c r="AK1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>3</v>
       </c>
@@ -855,7 +840,7 @@
         <v>7</v>
       </c>
       <c r="G2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="H2" t="s">
         <v>11</v>
@@ -891,165 +876,159 @@
         <v>3</v>
       </c>
       <c r="W2" t="s">
-        <v>54</v>
+        <v>1</v>
       </c>
       <c r="X2" t="s">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="Y2" t="s">
-        <v>19</v>
+        <v>52</v>
       </c>
       <c r="Z2" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AA2" t="s">
+        <v>44</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>15</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>20</v>
+      </c>
+      <c r="AD2" t="s">
         <v>43</v>
       </c>
-      <c r="AB2" t="s">
-        <v>44</v>
-      </c>
-      <c r="AC2" t="s">
+      <c r="AE2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AG2" t="s">
         <v>15</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>20</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>43</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>3</v>
-      </c>
-      <c r="AG2" t="s">
-        <v>46</v>
       </c>
       <c r="AH2" t="s">
         <v>15</v>
       </c>
       <c r="AI2" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="AJ2" t="s">
-        <v>23</v>
-      </c>
-      <c r="AK2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:37" s="1" customFormat="1" ht="285" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:36" s="1" customFormat="1" ht="285" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="G3" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="I3" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="F3" s="3" t="s">
+      <c r="J3" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="G3" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="I3" s="3" t="s">
+      <c r="K3" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="J3" s="5" t="s">
+      <c r="L3" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="K3" s="3" t="s">
+      <c r="M3" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="L3" s="3" t="s">
+      <c r="N3" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="M3" s="4" t="s">
+      <c r="O3" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="N3" s="4" t="s">
+      <c r="P3" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="O3" s="3" t="s">
+      <c r="Q3" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="P3" s="5" t="s">
+      <c r="R3" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="S3" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="T3" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="Q3" s="5" t="s">
+      <c r="U3" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="R3" s="3" t="s">
+      <c r="V3" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="W3" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="S3" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="T3" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="U3" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="V3" s="3" t="s">
+      <c r="X3" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y3" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="W3" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="X3" s="3" t="s">
+      <c r="Z3" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="Y3" s="3" t="s">
+      <c r="AA3" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="AB3" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="Z3" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="AA3" s="3" t="s">
+      <c r="AC3" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="AB3" s="3" t="s">
+      <c r="AD3" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="AC3" s="3" t="s">
+      <c r="AE3" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="AD3" s="3" t="s">
+      <c r="AF3" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="AE3" s="3" t="s">
+      <c r="AG3" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="AF3" s="3" t="s">
+      <c r="AH3" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="AG3" s="3" t="s">
+      <c r="AI3" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="AH3" s="3" t="s">
+      <c r="AJ3" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="AI3" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="AJ3" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="AK3" s="3" t="s">
-        <v>86</v>
-      </c>
     </row>
-    <row r="4" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:36" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D4" s="1" t="s">
         <v>9</v>
       </c>
@@ -1060,124 +1039,121 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:37" s="1" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:36" s="1" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="Q5" s="1" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="R5" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="S5" s="2" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="T5" s="1" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="U5" s="1" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="V5" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="W5" s="2" t="s">
-        <v>93</v>
+        <v>87</v>
+      </c>
+      <c r="W5" s="1" t="s">
+        <v>87</v>
       </c>
       <c r="X5" s="1" t="s">
         <v>90</v>
       </c>
       <c r="Y5" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="Z5" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="AA5" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="AB5" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="AC5" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="AD5" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="AE5" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="AF5" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="AG5" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="AH5" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="AJ5" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="Z5" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="AA5" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="AB5" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="AC5" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="AD5" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="AE5" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="AF5" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="AG5" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="AH5" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="AI5" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="AK5" s="2" t="s">
-        <v>98</v>
-      </c>
     </row>
-    <row r="6" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:36" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="1:36" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:36" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:36" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:36" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:36" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:36" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:36" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:36" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:36" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:36" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="17" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="18" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="19" s="1" customFormat="1" x14ac:dyDescent="0.25"/>

--- a/data/configurations_documentation.xlsx
+++ b/data/configurations_documentation.xlsx
@@ -680,8 +680,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AJ121"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AC1" workbookViewId="0">
-      <selection activeCell="X7" sqref="X7"/>
+    <sheetView tabSelected="1" topLeftCell="Z1" workbookViewId="0">
+      <selection activeCell="AC9" sqref="AC9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -704,7 +704,7 @@
     <col min="23" max="23" width="21.85546875" customWidth="1"/>
     <col min="24" max="28" width="42.85546875" customWidth="1"/>
     <col min="29" max="29" width="14.28515625" customWidth="1"/>
-    <col min="30" max="30" width="22.5703125" customWidth="1"/>
+    <col min="30" max="30" width="29.5703125" customWidth="1"/>
     <col min="31" max="31" width="19.140625" customWidth="1"/>
     <col min="32" max="32" width="14.5703125" customWidth="1"/>
     <col min="33" max="33" width="13" customWidth="1"/>
@@ -897,7 +897,7 @@
         <v>20</v>
       </c>
       <c r="AD2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AE2" t="s">
         <v>3</v>
